--- a/biology/Zoologie/Crambidae/Crambidae.xlsx
+++ b/biology/Zoologie/Crambidae/Crambidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Crambidae forment une famille d'insectes lépidoptères (« papillons »), parfois considérée comme une sous-famille des Pyralidae. Les espèces de cette famille sont de formes très variables : certaines espèces, appartenant à la sous-famille des Crambinae, ont un aspect très proche de feuilles ou d'organes végétaux ce qui les fait passer inaperçues, dans d'autres sous-familles les différentes espèces sont, au contraire, très colorées.
 </t>
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans de nombreuses classifications, les Crambidae ont été considérés comme sur une subdivision des Pyralidae. La différence principale est située dans la structure des organes auditifs nommé le praecinctorium, celui-ci est constitué de deux membranes tympaniques chez les Crambidae et est absent chez les Pyralidae. L'une des dernières révisions les concernant (Munroe &amp; Solis, in Kristensen (1999)) considère les Crambidae comme une famille valide.
 Les larves de Crambidae percent en général les tiges des poacées (graminées) ce qui confère à de nombreuses espèces le statut d'insecte nuisible en raison des dégâts occasionnés aux cultures, comme la Pyrale du maïs (Ostrinia nubilalis), la Pyrale du riz (Chilo suppressalis) ou la Pyrale de la canne à sucre (Diatraea saccharalis). Parmi les autres ravageurs connus, cette famille contient également la Pyrale du buis (Cydalima perspectalis). À l'inverse, le crambidé Niphograpta albiguttalis est utilisé en Floride pour contrôler le développement de sa plante hôte, la Jacinthe d'eau (Eichhornia crassipes).
@@ -544,16 +558,18 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2021, 15 sous-familles sont distinguées[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2021, 15 sous-familles sont distinguées :
 Acentropinae Stephens, 1836
 Crambinae Latreille, 1810
-Erupinae Munroe, 1995[2]
-Glaphyriinae Forbes, 1923 (= Evergestinae Marion, 1952, Noordinae Minet, 1980[1], Cybalomiinae Marion, 1955, Cathariinae Minet, 1982[2])
+Erupinae Munroe, 1995
+Glaphyriinae Forbes, 1923 (= Evergestinae Marion, 1952, Noordinae Minet, 1980, Cybalomiinae Marion, 1955, Cathariinae Minet, 1982)
 Heliothelinae Amsel, 1961
-Hoploscopinae Robinson, Tuck &amp; Shaffer, 1994[2]
-Lathrotelinae Clarke, 1971[3]
+Hoploscopinae Robinson, Tuck &amp; Shaffer, 1994
+Lathrotelinae Clarke, 1971
 Linostinae Amsel, 1956
 Midilinae Munroe, 1958
 Musotiminae Meyrick, 1884
@@ -572,8 +588,43 @@
 			Pyraustinae : Anania hortulata, la Pyrale de l'ortie
 			Scopariinae : Scoparia basistrigalis, l'Eudorée des bois
 			Spilomelinae : Bocchoris inspersalis
-Liste des genres
-Selon GlobIZ, la base d'information sur les Pyraloidea, les genres suivants sont ainsi répartis en 2021 :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Crambidae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Crambidae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GlobIZ, la base d'information sur les Pyraloidea, les genres suivants sont ainsi répartis en 2021 :
 sous-famille non-attribuée
 tribu non-attribuée
 Baltianania Solis in Heikkilä, Simonsen &amp; Solis, 2018
